--- a/Code/Results/Cases/Case_4_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.178776117722435</v>
+        <v>0.6478768977981701</v>
       </c>
       <c r="C2">
-        <v>0.09569559224078006</v>
+        <v>0.06827765426241683</v>
       </c>
       <c r="D2">
-        <v>0.1954172177129863</v>
+        <v>0.07804545101215865</v>
       </c>
       <c r="E2">
-        <v>0.05643326252521064</v>
+        <v>0.08603117381810321</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008130465141429807</v>
+        <v>0.002476208907534175</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4721048499051363</v>
+        <v>0.9756134643876067</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.04630934018985</v>
+        <v>0.4213791976436596</v>
       </c>
       <c r="L2">
-        <v>0.2683653879339261</v>
+        <v>0.2164816056303493</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8829810092291694</v>
+        <v>1.860019786817835</v>
       </c>
       <c r="O2">
-        <v>2.152557083401717</v>
+        <v>4.013973054213807</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.025560392313707</v>
+        <v>0.606460114415313</v>
       </c>
       <c r="C3">
-        <v>0.08792805312322827</v>
+        <v>0.06563215932921906</v>
       </c>
       <c r="D3">
-        <v>0.1695497627594875</v>
+        <v>0.07086771833321848</v>
       </c>
       <c r="E3">
-        <v>0.0524137139522729</v>
+        <v>0.0854988897022082</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008170473036557684</v>
+        <v>0.002478875706680454</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4671022686180457</v>
+        <v>0.9804678646478528</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9082436509931426</v>
+        <v>0.382139645420466</v>
       </c>
       <c r="L3">
-        <v>0.2371324795075793</v>
+        <v>0.2091502386510058</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9266934321393663</v>
+        <v>1.878671632541064</v>
       </c>
       <c r="O3">
-        <v>2.08865405455316</v>
+        <v>4.02390316916339</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9319514572232777</v>
+        <v>0.5812682110513947</v>
       </c>
       <c r="C4">
-        <v>0.0831501767079601</v>
+        <v>0.06398635146023679</v>
       </c>
       <c r="D4">
-        <v>0.1538102938169317</v>
+        <v>0.06649461010776747</v>
       </c>
       <c r="E4">
-        <v>0.05001759925749738</v>
+        <v>0.08521366835346633</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008195872747218173</v>
+        <v>0.002480601686933281</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4648623744722151</v>
+        <v>0.9838942384609481</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8237630527607678</v>
+        <v>0.3581438944201807</v>
       </c>
       <c r="L4">
-        <v>0.2182074402241625</v>
+        <v>0.2047661608942093</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9546900625661028</v>
+        <v>1.890709128914217</v>
       </c>
       <c r="O4">
-        <v>2.053287056087783</v>
+        <v>4.031994060331755</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8939055056254404</v>
+        <v>0.5710627906438503</v>
       </c>
       <c r="C5">
-        <v>0.08120012151097455</v>
+        <v>0.06331028040702336</v>
       </c>
       <c r="D5">
-        <v>0.1474280644417973</v>
+        <v>0.06472110486009797</v>
       </c>
       <c r="E5">
-        <v>0.04905829790339311</v>
+        <v>0.08510791786218519</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008206436813911262</v>
+        <v>0.00248132737211903</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4641501796179135</v>
+        <v>0.9854026405627891</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7893951043278093</v>
+        <v>0.3483904007983654</v>
       </c>
       <c r="L5">
-        <v>0.210553291249866</v>
+        <v>0.2030092058002992</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9663829668532795</v>
+        <v>1.895761646526793</v>
       </c>
       <c r="O5">
-        <v>2.03980197462414</v>
+        <v>4.035792643138137</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8875935983365082</v>
+        <v>0.5693718590270009</v>
       </c>
       <c r="C6">
-        <v>0.08087610866132877</v>
+        <v>0.06319769390435681</v>
       </c>
       <c r="D6">
-        <v>0.1463700951732676</v>
+        <v>0.06442713368186048</v>
       </c>
       <c r="E6">
-        <v>0.04890001472470651</v>
+        <v>0.08509099154260724</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008208203964543702</v>
+        <v>0.002481449222257914</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4640437923603571</v>
+        <v>0.9856598829322607</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7836914502866534</v>
+        <v>0.3467723621184291</v>
       </c>
       <c r="L6">
-        <v>0.2092856724866721</v>
+        <v>0.202719254051857</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9683415255950738</v>
+        <v>1.896609499873932</v>
       </c>
       <c r="O6">
-        <v>2.037617494751828</v>
+        <v>4.036453686963512</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9314379710055221</v>
+        <v>0.5811303314931138</v>
       </c>
       <c r="C7">
-        <v>0.08312389097521589</v>
+        <v>0.06397725554893441</v>
       </c>
       <c r="D7">
-        <v>0.1537240978780261</v>
+        <v>0.06647065727490542</v>
       </c>
       <c r="E7">
-        <v>0.05000459362379139</v>
+        <v>0.08521219970994132</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000819601434950483</v>
+        <v>0.002480611383315496</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4648519684288672</v>
+        <v>0.9839141272508698</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8232993365243431</v>
+        <v>0.3580122536903616</v>
       </c>
       <c r="L7">
-        <v>0.2181039860077902</v>
+        <v>0.2047423460746103</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9548466159054243</v>
+        <v>1.890776673183728</v>
       </c>
       <c r="O7">
-        <v>2.053101496016922</v>
+        <v>4.03204325870874</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.125840172625374</v>
+        <v>0.6335473020588438</v>
       </c>
       <c r="C8">
-        <v>0.09301857883390596</v>
+        <v>0.06736994531265594</v>
       </c>
       <c r="D8">
-        <v>0.1864657330549022</v>
+        <v>0.07556350584270888</v>
       </c>
       <c r="E8">
-        <v>0.05503181396275281</v>
+        <v>0.08583901795745419</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008144088829962369</v>
+        <v>0.002477110080386039</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4702020526276129</v>
+        <v>0.977194768000146</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9986343523227106</v>
+        <v>0.407829425606252</v>
       </c>
       <c r="L8">
-        <v>0.2575405961689654</v>
+        <v>0.2139294197674104</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8978086637370311</v>
+        <v>1.866329483185154</v>
       </c>
       <c r="O8">
-        <v>2.129691847563294</v>
+        <v>4.016983223987552</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.511580791956078</v>
+        <v>0.7382060200598346</v>
       </c>
       <c r="C9">
-        <v>0.1123971317269365</v>
+        <v>0.07385270347283779</v>
       </c>
       <c r="D9">
-        <v>0.2520154876042255</v>
+        <v>0.09366522172192049</v>
       </c>
       <c r="E9">
-        <v>0.06550611255924821</v>
+        <v>0.08739767858406111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008048714985173826</v>
+        <v>0.002470943657743601</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.487701359862541</v>
+        <v>0.9675537695862744</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.345515381091758</v>
+        <v>0.5062793425250334</v>
       </c>
       <c r="L9">
-        <v>0.3371382836360652</v>
+        <v>0.2328750205098942</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7954627340135811</v>
+        <v>1.82303153016994</v>
       </c>
       <c r="O9">
-        <v>2.312782255394097</v>
+        <v>4.003268078547791</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.798976623713713</v>
+        <v>0.8162188877691676</v>
       </c>
       <c r="C10">
-        <v>0.1266851391282415</v>
+        <v>0.07851218244519487</v>
       </c>
       <c r="D10">
-        <v>0.3013021226752102</v>
+        <v>0.1071316425505557</v>
       </c>
       <c r="E10">
-        <v>0.07364440118782056</v>
+        <v>0.08874307218259503</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007982324930142451</v>
+        <v>0.002466835463797399</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5054336617908888</v>
+        <v>0.9626250915532069</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.603331928316209</v>
+        <v>0.5790602153761313</v>
       </c>
       <c r="L10">
-        <v>0.3973896304626265</v>
+        <v>0.247360439543769</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7265379642291201</v>
+        <v>1.794049498310022</v>
       </c>
       <c r="O10">
-        <v>2.470600510450168</v>
+        <v>4.002837122963768</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.93088378658382</v>
+        <v>0.8519485623899357</v>
       </c>
       <c r="C11">
-        <v>0.1332121228870307</v>
+        <v>0.08060955844545958</v>
       </c>
       <c r="D11">
-        <v>0.324041902175253</v>
+        <v>0.1132946669962394</v>
       </c>
       <c r="E11">
-        <v>0.07745882002916105</v>
+        <v>0.08939849373448538</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000795286254576842</v>
+        <v>0.002465057333686627</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5147028568911125</v>
+        <v>0.9608506379503012</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.721527734573272</v>
+        <v>0.612265508377277</v>
       </c>
       <c r="L11">
-        <v>0.4252773486799839</v>
+        <v>0.2540730990462805</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6966564554660799</v>
+        <v>1.781478798012165</v>
       </c>
       <c r="O11">
-        <v>2.548230143343858</v>
+        <v>4.004736533191476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.981027815667204</v>
+        <v>0.8655126568740457</v>
       </c>
       <c r="C12">
-        <v>0.1356890809457383</v>
+        <v>0.08140058067841949</v>
       </c>
       <c r="D12">
-        <v>0.3327052032171167</v>
+        <v>0.1156337850541576</v>
       </c>
       <c r="E12">
-        <v>0.07892079255456252</v>
+        <v>0.08965291044611234</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007941806992683741</v>
+        <v>0.002464396977696421</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5183986814151851</v>
+        <v>0.9602459247985067</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.766440150949791</v>
+        <v>0.6248530623652471</v>
       </c>
       <c r="L12">
-        <v>0.435914838454238</v>
+        <v>0.2566326758841342</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6855632103339424</v>
+        <v>1.776806822199227</v>
       </c>
       <c r="O12">
-        <v>2.578535250558048</v>
+        <v>4.005757108476786</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.970219362885075</v>
+        <v>0.8625898826962555</v>
       </c>
       <c r="C13">
-        <v>0.1351553629278186</v>
+        <v>0.08123036274531614</v>
       </c>
       <c r="D13">
-        <v>0.3308369768560055</v>
+        <v>0.1151297780595826</v>
       </c>
       <c r="E13">
-        <v>0.07860512759750193</v>
+        <v>0.08959784077229571</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007944183585658205</v>
+        <v>0.002464538620706962</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5175942425356084</v>
+        <v>0.9603731705083902</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.756760216972282</v>
+        <v>0.622141518132338</v>
       </c>
       <c r="L13">
-        <v>0.4336203037855313</v>
+        <v>0.2560806419171797</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6879422807005433</v>
+        <v>1.777809088502035</v>
       </c>
       <c r="O13">
-        <v>2.571966946530154</v>
+        <v>4.005523908705527</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.935005132214712</v>
+        <v>0.8530638100548629</v>
       </c>
       <c r="C14">
-        <v>0.1334157883927674</v>
+        <v>0.08067470068063187</v>
       </c>
       <c r="D14">
-        <v>0.3247535521671239</v>
+        <v>0.1134870012421203</v>
       </c>
       <c r="E14">
-        <v>0.077578737664453</v>
+        <v>0.08941930013623889</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007951951000473123</v>
+        <v>0.002465002745802608</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5150031144560714</v>
+        <v>0.9607995404251284</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.725219478159147</v>
+        <v>0.6133008277543865</v>
       </c>
       <c r="L14">
-        <v>0.4261509092385865</v>
+        <v>0.2542833238955353</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6957392910447435</v>
+        <v>1.781092662145557</v>
       </c>
       <c r="O14">
-        <v>2.550704742630643</v>
+        <v>4.004814457913511</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.913461406969475</v>
+        <v>0.8472332296036598</v>
       </c>
       <c r="C15">
-        <v>0.1323509867917636</v>
+        <v>0.08033392348235679</v>
       </c>
       <c r="D15">
-        <v>0.3210342784906572</v>
+        <v>0.1124814445620217</v>
       </c>
       <c r="E15">
-        <v>0.07695237061905758</v>
+        <v>0.08931074871570033</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007956721791822767</v>
+        <v>0.002465288725056923</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.513440564560625</v>
+        <v>0.9610694598523111</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.705920657242501</v>
+        <v>0.607887383630981</v>
       </c>
       <c r="L15">
-        <v>0.4215859701997147</v>
+        <v>0.2531847095638255</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7005444495580022</v>
+        <v>1.783115444127377</v>
       </c>
       <c r="O15">
-        <v>2.537801470722087</v>
+        <v>4.004419137853631</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.79038184792023</v>
+        <v>0.8138886684145064</v>
       </c>
       <c r="C16">
-        <v>0.1262592521228356</v>
+        <v>0.07837466553844763</v>
       </c>
       <c r="D16">
-        <v>0.299822978418689</v>
+        <v>0.1067296190819462</v>
       </c>
       <c r="E16">
-        <v>0.0733974958800907</v>
+        <v>0.08870111058090302</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007984264810721191</v>
+        <v>0.002466953488813428</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5048531759209212</v>
+        <v>0.9627504652322045</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.595627854585132</v>
+        <v>0.57689207826661</v>
       </c>
       <c r="L16">
-        <v>0.3955774243313499</v>
+        <v>0.2469242236952169</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7285213032137783</v>
+        <v>1.794883371957681</v>
       </c>
       <c r="O16">
-        <v>2.465650483212642</v>
+        <v>4.002755156729449</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.715193583820479</v>
+        <v>0.793494185056403</v>
       </c>
       <c r="C17">
-        <v>0.122530124633343</v>
+        <v>0.07716701995828146</v>
       </c>
       <c r="D17">
-        <v>0.2868966369595256</v>
+        <v>0.1032105455642522</v>
       </c>
       <c r="E17">
-        <v>0.07124641107956009</v>
+        <v>0.08833821954153365</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008001347305481299</v>
+        <v>0.002467997956783877</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4999019786212955</v>
+        <v>0.9639014706282225</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.528216542299674</v>
+        <v>0.5579019237535476</v>
       </c>
       <c r="L17">
-        <v>0.3797503300782523</v>
+        <v>0.2431151131262652</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7460686063933721</v>
+        <v>1.802259765055474</v>
       </c>
       <c r="O17">
-        <v>2.422930853532876</v>
+        <v>4.002271044191701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.672055713990801</v>
+        <v>0.7817865619923055</v>
       </c>
       <c r="C18">
-        <v>0.1203877074851221</v>
+        <v>0.07647032100832973</v>
       </c>
       <c r="D18">
-        <v>0.279491370776995</v>
+        <v>0.1011899590133254</v>
       </c>
       <c r="E18">
-        <v>0.07001964284968309</v>
+        <v>0.08813357982455017</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000801124256165591</v>
+        <v>0.002468607248804104</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.49716656244712</v>
+        <v>0.9646075143190203</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.48952788101019</v>
+        <v>0.5469884409034194</v>
       </c>
       <c r="L18">
-        <v>0.3706915777774213</v>
+        <v>0.2409358112072368</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7562993013734562</v>
+        <v>1.806560200097229</v>
       </c>
       <c r="O18">
-        <v>2.398904669826663</v>
+        <v>4.002189830286483</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657467848953274</v>
+        <v>0.7778264880431323</v>
       </c>
       <c r="C19">
-        <v>0.119662706613056</v>
+        <v>0.07623407151199046</v>
       </c>
       <c r="D19">
-        <v>0.2769889760053559</v>
+        <v>0.1005064233197288</v>
       </c>
       <c r="E19">
-        <v>0.06960603908479612</v>
+        <v>0.08806499456900951</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008014605071449707</v>
+        <v>0.002468815013288331</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4962593226493368</v>
+        <v>0.9648541286620755</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.476442417264366</v>
+        <v>0.5432949103378917</v>
       </c>
       <c r="L19">
-        <v>0.3676318571517783</v>
+        <v>0.2401999311696557</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7597866252231462</v>
+        <v>1.808026166303444</v>
       </c>
       <c r="O19">
-        <v>2.390861400165022</v>
+        <v>4.002196208367877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.723186101937273</v>
+        <v>0.7956628633522485</v>
       </c>
       <c r="C20">
-        <v>0.1229268303183773</v>
+        <v>0.07729579259617481</v>
       </c>
       <c r="D20">
-        <v>0.2882695574616179</v>
+        <v>0.1035847957230231</v>
       </c>
       <c r="E20">
-        <v>0.07147430342855543</v>
+        <v>0.08837642719284133</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000799952165048274</v>
+        <v>0.002467885887986375</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5004173208503531</v>
+        <v>0.9637743887394024</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.535383681777034</v>
+        <v>0.5599225146063418</v>
       </c>
       <c r="L20">
-        <v>0.3814304810332203</v>
+        <v>0.2435193996574299</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7441863152638195</v>
+        <v>1.801468560173562</v>
       </c>
       <c r="O20">
-        <v>2.427421539370101</v>
+        <v>4.002302165830059</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.945342937160518</v>
+        <v>0.8558609297641908</v>
       </c>
       <c r="C21">
-        <v>0.1339265871148569</v>
+        <v>0.08083799925509538</v>
       </c>
       <c r="D21">
-        <v>0.3265389307642153</v>
+        <v>0.1139693805282036</v>
       </c>
       <c r="E21">
-        <v>0.07787972582816494</v>
+        <v>0.08947157310294429</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007949666817133462</v>
+        <v>0.002464866069241575</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5157590426537837</v>
+        <v>0.9606724806160329</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.734479381396284</v>
+        <v>0.6158971923573802</v>
       </c>
       <c r="L21">
-        <v>0.4283426936432591</v>
+        <v>0.2548107616522657</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6934430016763162</v>
+        <v>1.780125800597693</v>
       </c>
       <c r="O21">
-        <v>2.556924736964163</v>
+        <v>4.005014663453068</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.091677229776678</v>
+        <v>0.8954019695483453</v>
       </c>
       <c r="C22">
-        <v>0.1411473787274957</v>
+        <v>0.08313432966168932</v>
       </c>
       <c r="D22">
-        <v>0.3518579528141572</v>
+        <v>0.1207872748751839</v>
       </c>
       <c r="E22">
-        <v>0.08216896041258437</v>
+        <v>0.09022357736069964</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007917671179817021</v>
+        <v>0.00246296809257998</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5268752533976055</v>
+        <v>0.9590370905372581</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.865510764665288</v>
+        <v>0.6525579265957333</v>
       </c>
       <c r="L22">
-        <v>0.4594556418148983</v>
+        <v>0.2622930949889337</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6615800631508044</v>
+        <v>1.76669164711317</v>
       </c>
       <c r="O22">
-        <v>2.646893440752592</v>
+        <v>4.008543695876398</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.013462448138114</v>
+        <v>0.8742802578047986</v>
       </c>
       <c r="C23">
-        <v>0.1372900986249164</v>
+        <v>0.08191044980260642</v>
       </c>
       <c r="D23">
-        <v>0.3383143327512954</v>
+        <v>0.117145608900131</v>
       </c>
       <c r="E23">
-        <v>0.07986981368330248</v>
+        <v>0.08981890622027677</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007934695854035695</v>
+        <v>0.002463974176332085</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5208381473933983</v>
+        <v>0.9598740746902621</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.795485505769363</v>
+        <v>0.6329844285704667</v>
       </c>
       <c r="L23">
-        <v>0.4428057782897667</v>
+        <v>0.258290253245363</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6784632405916486</v>
+        <v>1.773814599120016</v>
       </c>
       <c r="O23">
-        <v>2.598363527320714</v>
+        <v>4.006499491529809</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.719572409607878</v>
+        <v>0.7946823495308877</v>
       </c>
       <c r="C24">
-        <v>0.1227474750859727</v>
+        <v>0.07723758198470421</v>
       </c>
       <c r="D24">
-        <v>0.2876487787851829</v>
+        <v>0.1034155892032942</v>
       </c>
       <c r="E24">
-        <v>0.07137124250589366</v>
+        <v>0.08835914108056642</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000800034679730465</v>
+        <v>0.002467936526866309</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5001839895582521</v>
+        <v>0.9638317044192917</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.532143211034168</v>
+        <v>0.5590089923310018</v>
       </c>
       <c r="L24">
-        <v>0.3806707593856515</v>
+        <v>0.2433365886745662</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7450368559582561</v>
+        <v>1.801826078100019</v>
       </c>
       <c r="O24">
-        <v>2.425389642484134</v>
+        <v>4.002287481746976</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.406621173231116</v>
+        <v>0.7096949591654607</v>
       </c>
       <c r="C25">
-        <v>0.1071509015945438</v>
+        <v>0.07211713409517273</v>
       </c>
       <c r="D25">
-        <v>0.2341080460162033</v>
+        <v>0.08873903310269782</v>
       </c>
       <c r="E25">
-        <v>0.06259989027659785</v>
+        <v>0.0869408101769622</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008073850630889464</v>
+        <v>0.002472537378274637</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4821571521789849</v>
+        <v>0.969783490696706</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.251238915834818</v>
+        <v>0.4795661346940676</v>
       </c>
       <c r="L25">
-        <v>0.3153238467305073</v>
+        <v>0.2276502684671868</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8220853992531225</v>
+        <v>1.834247881161907</v>
       </c>
       <c r="O25">
-        <v>2.259407224060681</v>
+        <v>4.005284731707576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6478768977981701</v>
+        <v>1.178776117722464</v>
       </c>
       <c r="C2">
-        <v>0.06827765426241683</v>
+        <v>0.09569559224090796</v>
       </c>
       <c r="D2">
-        <v>0.07804545101215865</v>
+        <v>0.1954172177130857</v>
       </c>
       <c r="E2">
-        <v>0.08603117381810321</v>
+        <v>0.05643326252519287</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002476208907534175</v>
+        <v>0.0008130465141709758</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9756134643876067</v>
+        <v>0.4721048499051435</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4213791976436596</v>
+        <v>1.046309340189794</v>
       </c>
       <c r="L2">
-        <v>0.2164816056303493</v>
+        <v>0.2683653879339118</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.860019786817835</v>
+        <v>0.8829810092291162</v>
       </c>
       <c r="O2">
-        <v>4.013973054213807</v>
+        <v>2.152557083401717</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.606460114415313</v>
+        <v>1.025560392313679</v>
       </c>
       <c r="C3">
-        <v>0.06563215932921906</v>
+        <v>0.08792805312346275</v>
       </c>
       <c r="D3">
-        <v>0.07086771833321848</v>
+        <v>0.1695497627594307</v>
       </c>
       <c r="E3">
-        <v>0.0854988897022082</v>
+        <v>0.0524137139522729</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002478875706680454</v>
+        <v>0.0008170473035944078</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9804678646478528</v>
+        <v>0.4671022686180315</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.382139645420466</v>
+        <v>0.9082436509932279</v>
       </c>
       <c r="L3">
-        <v>0.2091502386510058</v>
+        <v>0.237132479507622</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.878671632541064</v>
+        <v>0.9266934321394054</v>
       </c>
       <c r="O3">
-        <v>4.02390316916339</v>
+        <v>2.08865405455316</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5812682110513947</v>
+        <v>0.9319514572232777</v>
       </c>
       <c r="C4">
-        <v>0.06398635146023679</v>
+        <v>0.08315017670786773</v>
       </c>
       <c r="D4">
-        <v>0.06649461010776747</v>
+        <v>0.153810293817159</v>
       </c>
       <c r="E4">
-        <v>0.08521366835346633</v>
+        <v>0.05001759925751337</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002480601686933281</v>
+        <v>0.0008195872747204791</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9838942384609481</v>
+        <v>0.4648623744722151</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3581438944201807</v>
+        <v>0.8237630527607394</v>
       </c>
       <c r="L4">
-        <v>0.2047661608942093</v>
+        <v>0.2182074402240914</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.890709128914217</v>
+        <v>0.9546900625660797</v>
       </c>
       <c r="O4">
-        <v>4.031994060331755</v>
+        <v>2.053287056087839</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5710627906438503</v>
+        <v>0.893905505625554</v>
       </c>
       <c r="C5">
-        <v>0.06331028040702336</v>
+        <v>0.08120012151074008</v>
       </c>
       <c r="D5">
-        <v>0.06472110486009797</v>
+        <v>0.1474280644417831</v>
       </c>
       <c r="E5">
-        <v>0.08510791786218519</v>
+        <v>0.04905829790337179</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00248132737211903</v>
+        <v>0.0008206436813086381</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9854026405627891</v>
+        <v>0.4641501796179135</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3483904007983654</v>
+        <v>0.7893951043278093</v>
       </c>
       <c r="L5">
-        <v>0.2030092058002992</v>
+        <v>0.2105532912498518</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.895761646526793</v>
+        <v>0.966382966853276</v>
       </c>
       <c r="O5">
-        <v>4.035792643138137</v>
+        <v>2.039801974624197</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5693718590270009</v>
+        <v>0.8875935983365082</v>
       </c>
       <c r="C6">
-        <v>0.06319769390435681</v>
+        <v>0.08087610866132877</v>
       </c>
       <c r="D6">
-        <v>0.06442713368186048</v>
+        <v>0.1463700951729123</v>
       </c>
       <c r="E6">
-        <v>0.08509099154260724</v>
+        <v>0.04890001472467631</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002481449222257914</v>
+        <v>0.0008208203964312605</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9856598829322607</v>
+        <v>0.4640437923603677</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3467723621184291</v>
+        <v>0.7836914502866534</v>
       </c>
       <c r="L6">
-        <v>0.202719254051857</v>
+        <v>0.2092856724866579</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.896609499873932</v>
+        <v>0.968341525595104</v>
       </c>
       <c r="O6">
-        <v>4.036453686963512</v>
+        <v>2.0376174947518</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5811303314931138</v>
+        <v>0.9314379710053799</v>
       </c>
       <c r="C7">
-        <v>0.06397725554893441</v>
+        <v>0.0831238909749743</v>
       </c>
       <c r="D7">
-        <v>0.06647065727490542</v>
+        <v>0.1537240978780261</v>
       </c>
       <c r="E7">
-        <v>0.08521219970994132</v>
+        <v>0.05000459362379317</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002480611383315496</v>
+        <v>0.0008196014349268505</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9839141272508698</v>
+        <v>0.4648519684288601</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3580122536903616</v>
+        <v>0.8232993365242294</v>
       </c>
       <c r="L7">
-        <v>0.2047423460746103</v>
+        <v>0.218103986007776</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.890776673183728</v>
+        <v>0.9548466159053532</v>
       </c>
       <c r="O7">
-        <v>4.03204325870874</v>
+        <v>2.053101496016836</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6335473020588438</v>
+        <v>1.125840172625402</v>
       </c>
       <c r="C8">
-        <v>0.06736994531265594</v>
+        <v>0.09301857883389175</v>
       </c>
       <c r="D8">
-        <v>0.07556350584270888</v>
+        <v>0.1864657330549875</v>
       </c>
       <c r="E8">
-        <v>0.08583901795745419</v>
+        <v>0.05503181396275636</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002477110080386039</v>
+        <v>0.0008144088829653644</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.977194768000146</v>
+        <v>0.4702020526276272</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.407829425606252</v>
+        <v>0.998634352322739</v>
       </c>
       <c r="L8">
-        <v>0.2139294197674104</v>
+        <v>0.2575405961690507</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.866329483185154</v>
+        <v>0.8978086637370488</v>
       </c>
       <c r="O8">
-        <v>4.016983223987552</v>
+        <v>2.129691847563464</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7382060200598346</v>
+        <v>1.511580791956163</v>
       </c>
       <c r="C9">
-        <v>0.07385270347283779</v>
+        <v>0.1123971317271071</v>
       </c>
       <c r="D9">
-        <v>0.09366522172192049</v>
+        <v>0.2520154876042255</v>
       </c>
       <c r="E9">
-        <v>0.08739767858406111</v>
+        <v>0.06550611255921979</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002470943657743601</v>
+        <v>0.0008048714985740556</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9675537695862744</v>
+        <v>0.487701359862541</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5062793425250334</v>
+        <v>1.345515381091843</v>
       </c>
       <c r="L9">
-        <v>0.2328750205098942</v>
+        <v>0.3371382836360226</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.82303153016994</v>
+        <v>0.7954627340135758</v>
       </c>
       <c r="O9">
-        <v>4.003268078547791</v>
+        <v>2.312782255394126</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8162188877691676</v>
+        <v>1.798976623713855</v>
       </c>
       <c r="C10">
-        <v>0.07851218244519487</v>
+        <v>0.1266851391282557</v>
       </c>
       <c r="D10">
-        <v>0.1071316425505557</v>
+        <v>0.3013021226753949</v>
       </c>
       <c r="E10">
-        <v>0.08874307218259503</v>
+        <v>0.07364440118780635</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002466835463797399</v>
+        <v>0.0007982324930727036</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9626250915532069</v>
+        <v>0.5054336617908888</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5790602153761313</v>
+        <v>1.603331928316095</v>
       </c>
       <c r="L10">
-        <v>0.247360439543769</v>
+        <v>0.3973896304625129</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.794049498310022</v>
+        <v>0.726537964229081</v>
       </c>
       <c r="O10">
-        <v>4.002837122963768</v>
+        <v>2.47060051045014</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8519485623899357</v>
+        <v>1.930883786583792</v>
       </c>
       <c r="C11">
-        <v>0.08060955844545958</v>
+        <v>0.1332121228870449</v>
       </c>
       <c r="D11">
-        <v>0.1132946669962394</v>
+        <v>0.3240419021752956</v>
       </c>
       <c r="E11">
-        <v>0.08939849373448538</v>
+        <v>0.07745882002917526</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002465057333686627</v>
+        <v>0.0007952862545754658</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9608506379503012</v>
+        <v>0.5147028568911338</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.612265508377277</v>
+        <v>1.721527734573158</v>
       </c>
       <c r="L11">
-        <v>0.2540730990462805</v>
+        <v>0.4252773486799839</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.781478798012165</v>
+        <v>0.6966564554660941</v>
       </c>
       <c r="O11">
-        <v>4.004736533191476</v>
+        <v>2.548230143343744</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8655126568740457</v>
+        <v>1.981027815667147</v>
       </c>
       <c r="C12">
-        <v>0.08140058067841949</v>
+        <v>0.1356890809456104</v>
       </c>
       <c r="D12">
-        <v>0.1156337850541576</v>
+        <v>0.3327052032171167</v>
       </c>
       <c r="E12">
-        <v>0.08965291044611234</v>
+        <v>0.07892079255456608</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002464396977696421</v>
+        <v>0.0007941806993280638</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9602459247985067</v>
+        <v>0.5183986814151709</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6248530623652471</v>
+        <v>1.766440150949762</v>
       </c>
       <c r="L12">
-        <v>0.2566326758841342</v>
+        <v>0.4359148384542664</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.776806822199227</v>
+        <v>0.6855632103339371</v>
       </c>
       <c r="O12">
-        <v>4.005757108476786</v>
+        <v>2.578535250558048</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8625898826962555</v>
+        <v>1.970219362885132</v>
       </c>
       <c r="C13">
-        <v>0.08123036274531614</v>
+        <v>0.1351553629275912</v>
       </c>
       <c r="D13">
-        <v>0.1151297780595826</v>
+        <v>0.3308369768560198</v>
       </c>
       <c r="E13">
-        <v>0.08959784077229571</v>
+        <v>0.07860512759750549</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002464538620706962</v>
+        <v>0.0007944183585951376</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9603731705083902</v>
+        <v>0.5175942425356297</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.622141518132338</v>
+        <v>1.756760216972225</v>
       </c>
       <c r="L13">
-        <v>0.2560806419171797</v>
+        <v>0.4336203037855597</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.777809088502035</v>
+        <v>0.6879422807005522</v>
       </c>
       <c r="O13">
-        <v>4.005523908705527</v>
+        <v>2.571966946530125</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8530638100548629</v>
+        <v>1.935005132214684</v>
       </c>
       <c r="C14">
-        <v>0.08067470068063187</v>
+        <v>0.1334157883926395</v>
       </c>
       <c r="D14">
-        <v>0.1134870012421203</v>
+        <v>0.3247535521671097</v>
       </c>
       <c r="E14">
-        <v>0.08941930013623889</v>
+        <v>0.07757873766442813</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002465002745802608</v>
+        <v>0.0007951951000486356</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9607995404251284</v>
+        <v>0.5150031144560714</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6133008277543865</v>
+        <v>1.725219478159204</v>
       </c>
       <c r="L14">
-        <v>0.2542833238955353</v>
+        <v>0.4261509092387143</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.781092662145557</v>
+        <v>0.6957392910446849</v>
       </c>
       <c r="O14">
-        <v>4.004814457913511</v>
+        <v>2.550704742630586</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8472332296036598</v>
+        <v>1.91346140696939</v>
       </c>
       <c r="C15">
-        <v>0.08033392348235679</v>
+        <v>0.1323509867916357</v>
       </c>
       <c r="D15">
-        <v>0.1124814445620217</v>
+        <v>0.3210342784905578</v>
       </c>
       <c r="E15">
-        <v>0.08931074871570033</v>
+        <v>0.07695237061905402</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002465288725056923</v>
+        <v>0.0007956721792121337</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9610694598523111</v>
+        <v>0.5134405645606179</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.607887383630981</v>
+        <v>1.705920657242444</v>
       </c>
       <c r="L15">
-        <v>0.2531847095638255</v>
+        <v>0.4215859701997715</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.783115444127377</v>
+        <v>0.7005444495579933</v>
       </c>
       <c r="O15">
-        <v>4.004419137853631</v>
+        <v>2.537801470722087</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8138886684145064</v>
+        <v>1.790381847920059</v>
       </c>
       <c r="C16">
-        <v>0.07837466553844763</v>
+        <v>0.1262592521226082</v>
       </c>
       <c r="D16">
-        <v>0.1067296190819462</v>
+        <v>0.2998229784187174</v>
       </c>
       <c r="E16">
-        <v>0.08870111058090302</v>
+        <v>0.0733974958800836</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002466953488813428</v>
+        <v>0.0007984264810716972</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9627504652322045</v>
+        <v>0.5048531759209212</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.57689207826661</v>
+        <v>1.595627854585018</v>
       </c>
       <c r="L16">
-        <v>0.2469242236952169</v>
+        <v>0.3955774243312931</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.794883371957681</v>
+        <v>0.7285213032137641</v>
       </c>
       <c r="O16">
-        <v>4.002755156729449</v>
+        <v>2.465650483212585</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.793494185056403</v>
+        <v>1.715193583820337</v>
       </c>
       <c r="C17">
-        <v>0.07716701995828146</v>
+        <v>0.1225301246331014</v>
       </c>
       <c r="D17">
-        <v>0.1032105455642522</v>
+        <v>0.2868966369595825</v>
       </c>
       <c r="E17">
-        <v>0.08833821954153365</v>
+        <v>0.0712464110795743</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002467997956783877</v>
+        <v>0.0008001347305480374</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9639014706282225</v>
+        <v>0.4999019786212884</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5579019237535476</v>
+        <v>1.528216542299646</v>
       </c>
       <c r="L17">
-        <v>0.2431151131262652</v>
+        <v>0.3797503300782665</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.802259765055474</v>
+        <v>0.7460686063933721</v>
       </c>
       <c r="O17">
-        <v>4.002271044191701</v>
+        <v>2.422930853532876</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7817865619923055</v>
+        <v>1.672055713990829</v>
       </c>
       <c r="C18">
-        <v>0.07647032100832973</v>
+        <v>0.1203877074852358</v>
       </c>
       <c r="D18">
-        <v>0.1011899590133254</v>
+        <v>0.2794913707770945</v>
       </c>
       <c r="E18">
-        <v>0.08813357982455017</v>
+        <v>0.07001964284968309</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002468607248804104</v>
+        <v>0.0008011242560797351</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9646075143190203</v>
+        <v>0.49716656244712</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5469884409034194</v>
+        <v>1.489527881010019</v>
       </c>
       <c r="L18">
-        <v>0.2409358112072368</v>
+        <v>0.3706915777773787</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.806560200097229</v>
+        <v>0.7562993013734456</v>
       </c>
       <c r="O18">
-        <v>4.002189830286483</v>
+        <v>2.39890466982655</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7778264880431323</v>
+        <v>1.657467848953246</v>
       </c>
       <c r="C19">
-        <v>0.07623407151199046</v>
+        <v>0.1196627066130418</v>
       </c>
       <c r="D19">
-        <v>0.1005064233197288</v>
+        <v>0.2769889760053417</v>
       </c>
       <c r="E19">
-        <v>0.08806499456900951</v>
+        <v>0.06960603908477481</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002468815013288331</v>
+        <v>0.000801460507144319</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9648541286620755</v>
+        <v>0.4962593226493297</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5432949103378917</v>
+        <v>1.476442417264252</v>
       </c>
       <c r="L19">
-        <v>0.2401999311696557</v>
+        <v>0.3676318571518351</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.808026166303444</v>
+        <v>0.7597866252231302</v>
       </c>
       <c r="O19">
-        <v>4.002196208367877</v>
+        <v>2.390861400164994</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7956628633522485</v>
+        <v>1.723186101937472</v>
       </c>
       <c r="C20">
-        <v>0.07729579259617481</v>
+        <v>0.1229268303187325</v>
       </c>
       <c r="D20">
-        <v>0.1035847957230231</v>
+        <v>0.2882695574614758</v>
       </c>
       <c r="E20">
-        <v>0.08837642719284133</v>
+        <v>0.07147430342857675</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002467885887986375</v>
+        <v>0.0007999521650197995</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9637743887394024</v>
+        <v>0.5004173208503389</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5599225146063418</v>
+        <v>1.535383681776977</v>
       </c>
       <c r="L20">
-        <v>0.2435193996574299</v>
+        <v>0.3814304810332487</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.801468560173562</v>
+        <v>0.7441863152638142</v>
       </c>
       <c r="O20">
-        <v>4.002302165830059</v>
+        <v>2.427421539370073</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8558609297641908</v>
+        <v>1.945342937160518</v>
       </c>
       <c r="C21">
-        <v>0.08083799925509538</v>
+        <v>0.1339265871148427</v>
       </c>
       <c r="D21">
-        <v>0.1139693805282036</v>
+        <v>0.3265389307641016</v>
       </c>
       <c r="E21">
-        <v>0.08947157310294429</v>
+        <v>0.07787972582816138</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002464866069241575</v>
+        <v>0.0007949666817141376</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9606724806160329</v>
+        <v>0.5157590426537837</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6158971923573802</v>
+        <v>1.734479381396199</v>
       </c>
       <c r="L21">
-        <v>0.2548107616522657</v>
+        <v>0.4283426936432591</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.780125800597693</v>
+        <v>0.6934430016763233</v>
       </c>
       <c r="O21">
-        <v>4.005014663453068</v>
+        <v>2.556924736964078</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8954019695483453</v>
+        <v>2.091677229776622</v>
       </c>
       <c r="C22">
-        <v>0.08313432966168932</v>
+        <v>0.1411473787277231</v>
       </c>
       <c r="D22">
-        <v>0.1207872748751839</v>
+        <v>0.351857952814143</v>
       </c>
       <c r="E22">
-        <v>0.09022357736069964</v>
+        <v>0.08216896041259503</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00246296809257998</v>
+        <v>0.0007917671179228888</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9590370905372581</v>
+        <v>0.5268752533976127</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6525579265957333</v>
+        <v>1.865510764665402</v>
       </c>
       <c r="L22">
-        <v>0.2622930949889337</v>
+        <v>0.4594556418149409</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.76669164711317</v>
+        <v>0.6615800631507991</v>
       </c>
       <c r="O22">
-        <v>4.008543695876398</v>
+        <v>2.646893440752649</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8742802578047986</v>
+        <v>2.013462448138228</v>
       </c>
       <c r="C23">
-        <v>0.08191044980260642</v>
+        <v>0.1372900986249164</v>
       </c>
       <c r="D23">
-        <v>0.117145608900131</v>
+        <v>0.3383143327511959</v>
       </c>
       <c r="E23">
-        <v>0.08981890622027677</v>
+        <v>0.07986981368329182</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002463974176332085</v>
+        <v>0.0007934695853430929</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9598740746902621</v>
+        <v>0.5208381473934196</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6329844285704667</v>
+        <v>1.795485505769307</v>
       </c>
       <c r="L23">
-        <v>0.258290253245363</v>
+        <v>0.4428057782898662</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.773814599120016</v>
+        <v>0.6784632405916557</v>
       </c>
       <c r="O23">
-        <v>4.006499491529809</v>
+        <v>2.598363527320743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7946823495308877</v>
+        <v>1.719572409607764</v>
       </c>
       <c r="C24">
-        <v>0.07723758198470421</v>
+        <v>0.1227474750859869</v>
       </c>
       <c r="D24">
-        <v>0.1034155892032942</v>
+        <v>0.287648778785254</v>
       </c>
       <c r="E24">
-        <v>0.08835914108056642</v>
+        <v>0.07137124250590077</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002467936526866309</v>
+        <v>0.0008000346797009672</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9638317044192917</v>
+        <v>0.5001839895582592</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5590089923310018</v>
+        <v>1.532143211034224</v>
       </c>
       <c r="L24">
-        <v>0.2433365886745662</v>
+        <v>0.3806707593855947</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.801826078100019</v>
+        <v>0.745036855958249</v>
       </c>
       <c r="O24">
-        <v>4.002287481746976</v>
+        <v>2.425389642484191</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7096949591654607</v>
+        <v>1.406621173230945</v>
       </c>
       <c r="C25">
-        <v>0.07211713409517273</v>
+        <v>0.1071509015947782</v>
       </c>
       <c r="D25">
-        <v>0.08873903310269782</v>
+        <v>0.2341080460164733</v>
       </c>
       <c r="E25">
-        <v>0.0869408101769622</v>
+        <v>0.06259989027659785</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002472537378274637</v>
+        <v>0.0008073850630863952</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.969783490696706</v>
+        <v>0.4821571521789707</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4795661346940676</v>
+        <v>1.251238915834705</v>
       </c>
       <c r="L25">
-        <v>0.2276502684671868</v>
+        <v>0.3153238467304647</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.834247881161907</v>
+        <v>0.822085399253103</v>
       </c>
       <c r="O25">
-        <v>4.005284731707576</v>
+        <v>2.259407224060652</v>
       </c>
     </row>
   </sheetData>
